--- a/mySystem/mySystem/xls/LDPEBag/LDPE 制袋外包标签.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/LDPE 制袋外包标签.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C Sharp\my\mySystem\mySystem\xls\LDPEBag\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="外箱-中文" sheetId="1" r:id="rId1"/>
     <sheet name="外箱-英文" sheetId="2" r:id="rId2"/>
     <sheet name="Common" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'外箱-中文'!$A$1:$D$12</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>注册证号：</t>
   </si>
@@ -84,52 +82,41 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>数量：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效期至：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>包装序号</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>箱体规格：</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京市怀柔雁栖经济开发区雁栖路</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>毛重：</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>15</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -139,88 +126,32 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>箱体规格：</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司名称：</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>颇尔奥星包装科技（北京）有限责任公司</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司地址：</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>北京市怀柔雁栖经济开发区雁栖路</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应贮存在通风、干燥、清洁并保持有良好消防设施的仓库内，温度为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>10-40</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -230,7 +161,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>应贮存在通风、干燥、清洁并保持有良好消防设施的仓库内，温度为</t>
+      <t>℃，</t>
     </r>
     <r>
       <rPr>
@@ -240,7 +171,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>10-40</t>
+      <t>RH</t>
     </r>
     <r>
       <rPr>
@@ -251,7 +182,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>℃，</t>
+      <t>＜</t>
     </r>
     <r>
       <rPr>
@@ -261,7 +192,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>RH</t>
+      <t>70%</t>
     </r>
     <r>
       <rPr>
@@ -272,32 +203,32 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>＜</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
+      <t>。贮存时应远离热源，并防止阳光直射。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品名称：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>70%</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。贮存时应远离热源，并防止阳光直射。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve">   </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -307,7 +238,34 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>产品名称：</t>
+      <t>无菌原料药用低密度聚乙烯袋</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册证号：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国药包字</t>
     </r>
     <r>
       <rPr>
@@ -317,8 +275,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
+      <t xml:space="preserve"> 20130307</t>
+    </r>
+  </si>
+  <si>
+    <t>PEF-BS-400×500×100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400mm×500mm×0.10mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -328,7 +296,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>无菌原料药用低密度聚乙烯袋</t>
+      <t>有效期至：</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -342,39 +310,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>注册证号：</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国药包字</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
+      <t>数量：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 20130307</t>
-    </r>
-  </si>
-  <si>
-    <t>PEF-BS-400×500×100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>400mm×500mm×0.10mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+      <t/>
+    </r>
   </si>
   <si>
     <r>
@@ -386,31 +332,19 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>有效期至：</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>包装序号</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数量：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t/>
-    </r>
+      <t xml:space="preserve">:  </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -422,7 +356,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>包装序号</t>
+      <t>毛重：</t>
     </r>
     <r>
       <rPr>
@@ -432,94 +366,189 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">:  </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">           </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25KG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>450mm×550mm×200mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司名称</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>颇尔奥星包装科技（北京）有限责任公司</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司地址</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编码</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品规格</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFG</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expire</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantity</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装序号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱体规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>caton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品批号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册证号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期至：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pall  AUSTAR Packaging Technology Co., Ltd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Code</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="14"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>毛重：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Size</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="14"/>
         <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25KG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>450mm×550mm×200mm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司名称</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>颇尔奥星包装科技（北京）有限责任公司</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司地址</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pall  AUSTAR Packaging Technology Co., Ltd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Code</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Batch No.</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="14"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
@@ -532,11 +561,10 @@
   </si>
   <si>
     <r>
-      <t>Size</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>Mfg Date</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="14"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
@@ -549,11 +577,10 @@
   </si>
   <si>
     <r>
-      <t>Batch No.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>Expiry Date</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="14"/>
         <color indexed="8"/>
         <rFont val="新宋体"/>
@@ -565,158 +592,89 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Mfg Date</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Quantity</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Expiry Date</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Pack No.: </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品编码</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品规格</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Size</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Batch</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产日期</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>MFG</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效期</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expire</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>产品编码：</t>
+  </si>
+  <si>
+    <t>产品规格：</t>
+  </si>
+  <si>
+    <t>产品批号：</t>
+  </si>
+  <si>
+    <t>生产日期：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛重：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱体规格：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颇尔奥星包装科技（北京）有限责任公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司地址：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市怀柔雁栖经济开发区雁栖路15号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应贮存在通风、干燥、清洁并保持有良好消防设施的仓库内，温度为10-40℃，RH＜70%。贮存时应远离热源，并防止阳光直射。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pack No.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Quantity</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装序号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gross</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>箱体规格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>caton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品批号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册证号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin of Manufacturing:    China</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFDA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>国药包字 20130307</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GYBZ 20130307</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="000"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -762,14 +720,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -812,13 +762,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -835,7 +812,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1127,6 +1104,45 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1136,37 +1152,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1185,153 +1174,207 @@
     <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1394,7 +1437,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1429,7 +1472,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1606,60 +1649,61 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="9" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="str">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A1" s="42" t="str">
         <f>CONCATENATE("产品名称：",Common!B1)</f>
         <v>产品名称：</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43" t="str">
+      <c r="B2" s="74" t="str">
         <f>Common!B11</f>
         <v>国药包字 20130307</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
+      <c r="C2" s="75"/>
+      <c r="D2" s="76"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="B3" s="45">
         <f>Common!B2</f>
@@ -1668,9 +1712,9 @@
       <c r="C3" s="45"/>
       <c r="D3" s="46"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A4" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="B4" s="45">
         <f>Common!B3</f>
@@ -1679,9 +1723,9 @@
       <c r="C4" s="45"/>
       <c r="D4" s="46"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="B5" s="45">
         <f>Common!B4</f>
@@ -1690,87 +1734,87 @@
       <c r="C5" s="45"/>
       <c r="D5" s="46"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="29">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="22">
         <f>Common!B5</f>
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="28">
         <f>Common!B7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="30">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="23">
         <f>Common!B6</f>
         <v>0</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="24">
         <f>Common!B8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="47">
-        <f>Common!B9</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-    </row>
-    <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="31">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="30" t="str">
+        <f>CONCATENATE(Common!B9," KG")</f>
+        <v xml:space="preserve"> KG</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="30">
         <f>Common!B10</f>
         <v>0</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-    </row>
-    <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-    </row>
-    <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-    </row>
-    <row r="12" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="18.75">
+      <c r="A11" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A12" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1786,274 +1830,288 @@
     <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.69" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.19685039370078741" top="0.11811023622047245" bottom="0.11811023622047245" header="0" footer="0"/>
+  <pageSetup paperSize="282" scale="96" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="9" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="A1" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="59">
+        <v>2015051101</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2015.05</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2018.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5">
+        <v>500</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B8" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="56" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
+    </row>
+    <row r="9" spans="1:4" ht="20.25" hidden="1" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="56" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+    </row>
+    <row r="10" spans="1:4" ht="20.25" hidden="1" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="56">
-        <v>2015051101</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13">
-        <v>2015.05</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="B10" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="15">
-        <v>2018.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+    </row>
+    <row r="11" spans="1:4" ht="20.25" hidden="1" customHeight="1">
+      <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="14">
-        <v>500</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-    </row>
-    <row r="9" spans="1:4" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-    </row>
-    <row r="10" spans="1:4" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-    </row>
-    <row r="11" spans="1:4" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-    </row>
-    <row r="12" spans="1:4" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-    </row>
-    <row r="16" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61" t="str">
+      <c r="B11" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+    </row>
+    <row r="12" spans="1:4" ht="33.75" hidden="1" customHeight="1">
+      <c r="A12" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" hidden="1" thickBot="1"/>
+    <row r="14" spans="1:4" ht="15.75" hidden="1" thickBot="1"/>
+    <row r="15" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A15" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+    </row>
+    <row r="16" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A16" s="64" t="str">
         <f>CONCATENATE("Name：",Common!E1)</f>
         <v>Name：</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-    </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="59">
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+    </row>
+    <row r="17" spans="1:4" ht="24" customHeight="1">
+      <c r="A17" s="50" t="str">
+        <f>CONCATENATE("CFDA Licence No.:   ",Common!E11)</f>
+        <v>CFDA Licence No.:   GYBZ 20130307</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+    </row>
+    <row r="18" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="62">
         <f>Common!E2</f>
         <v>0</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-    </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="59">
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+    </row>
+    <row r="19" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="62">
         <f>Common!E3</f>
         <v>0</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-    </row>
-    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="59">
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1">
+      <c r="A20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="62">
         <f>Common!E4</f>
         <v>0</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-    </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="26">
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+    </row>
+    <row r="21" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A21" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="16">
         <f>Common!E5</f>
         <v>0</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="22">
+      <c r="C21" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="29">
         <f>Common!E7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="26">
+    <row r="22" spans="1:4" ht="39" customHeight="1">
+      <c r="A22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="16">
         <f>Common!E6</f>
         <v>0</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="25">
+      <c r="C22" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="27">
         <f>Common!E8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61" t="str">
+    <row r="23" spans="1:4" ht="23.25" customHeight="1">
+      <c r="A23" s="64" t="str">
         <f>CONCATENATE("Gross Weight：",Common!E9)</f>
         <v>Gross Weight：</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-    </row>
-    <row r="23" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="str">
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+    </row>
+    <row r="24" spans="1:4" ht="25.5" customHeight="1">
+      <c r="A24" s="65" t="str">
         <f>CONCATENATE("Carton Size:",Common!E10)</f>
         <v>Carton Size:</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="67"/>
+    </row>
+    <row r="25" spans="1:4" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A25" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:D2"/>
@@ -2062,132 +2120,147 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.69" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.19685039370078741" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
-        <v>57</v>
-      </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/mySystem/mySystem/xls/LDPEBag/LDPE 制袋外包标签.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/LDPE 制袋外包标签.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mitcpro\mySystem\mySystem\xls\LDPEBag\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="外箱-中文" sheetId="1" r:id="rId1"/>
     <sheet name="外箱-英文" sheetId="2" r:id="rId2"/>
-    <sheet name="Common" sheetId="3" r:id="rId3"/>
+    <sheet name="外箱-进口" sheetId="4" r:id="rId3"/>
+    <sheet name="外箱-中文 -不体现储存条件" sheetId="5" r:id="rId4"/>
+    <sheet name="外箱-英文-不体现重量" sheetId="6" r:id="rId5"/>
+    <sheet name="Common" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'外箱-中文'!$A$1:$D$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'外箱-中文 -不体现储存条件'!$A$1:$D$11</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
   <si>
     <t>注册证号：</t>
   </si>
@@ -649,32 +658,144 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>CFDA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国药包字 20130307</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GYBZ 20130307</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carton Size:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Packnr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Batchnr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Quantity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LD1S50-1148-0001</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUSTAR  HANSEN  GROUP</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Life Science</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                 
+                      </t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pall Life Science Belgium BV BA
+Reugelstraat 2,3320 - Hoegaarden, 
+Belgium
+Tel: +32 (0) 16 76 80 70</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Origin of Manufacturing:    China</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFDA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>国药包字 20130307</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GYBZ 20130307</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="000"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -797,6 +918,60 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -812,7 +987,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1109,50 +1284,160 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="hair">
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="hair">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1235,6 +1520,66 @@
     <xf numFmtId="178" fontId="15" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1280,30 +1625,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1311,42 +1647,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1367,19 +1667,102 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 25_LD1S50-1148-0001-1010x1110 6402016 外箱签" xfId="3"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1392,6 +1775,346 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>125412</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>763587</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>452437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="125412" y="138113"/>
+          <a:ext cx="561975" cy="38099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>PALL</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>112715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>396875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="椭圆 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="112715"/>
+          <a:ext cx="641350" cy="55560"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>468312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="460375" y="171450"/>
+          <a:ext cx="266700" cy="1587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>®</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>112715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>396875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="椭圆 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="112715"/>
+          <a:ext cx="0" cy="55560"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>112715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>396875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="椭圆 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="112715"/>
+          <a:ext cx="0" cy="55560"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1649,14 +2372,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1664,10 +2387,10 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
@@ -1681,60 +2404,60 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A1" s="42" t="str">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="str">
         <f>CONCATENATE("产品名称：",Common!B1)</f>
         <v>产品名称：</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74" t="str">
+      <c r="B2" s="65" t="str">
         <f>Common!B11</f>
         <v>国药包字 20130307</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="76"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="68">
         <f>Common!B2</f>
         <v>0</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="68">
         <f>Common!B3</f>
         <v>0</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="68">
         <f>Common!B4</f>
         <v>0</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>53</v>
       </c>
@@ -1750,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>43</v>
       </c>
@@ -1766,55 +2489,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="23.25" customHeight="1">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="30" t="str">
+      <c r="B8" s="50" t="str">
         <f>CONCATENATE(Common!B9," KG")</f>
         <v xml:space="preserve"> KG</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="50">
         <f>Common!B10</f>
         <v>0</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="18.75">
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A12" s="39" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1832,23 +2555,23 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.19685039370078741" top="0.11811023622047245" bottom="0.11811023622047245" header="0" footer="0"/>
-  <pageSetup paperSize="282" scale="96" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="282" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:D19"/>
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="2" customWidth="1"/>
@@ -1862,55 +2585,55 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="82">
         <v>2015051101</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1924,7 +2647,7 @@
         <v>2018.04</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1938,116 +2661,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-    </row>
-    <row r="9" spans="1:4" ht="20.25" hidden="1" customHeight="1">
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
+    </row>
+    <row r="9" spans="1:4" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-    </row>
-    <row r="10" spans="1:4" ht="20.25" hidden="1" customHeight="1">
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
+    </row>
+    <row r="10" spans="1:4" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-    </row>
-    <row r="11" spans="1:4" ht="20.25" hidden="1" customHeight="1">
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+    </row>
+    <row r="11" spans="1:4" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-    </row>
-    <row r="12" spans="1:4" ht="33.75" hidden="1" customHeight="1">
-      <c r="A12" s="68" t="s">
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+    </row>
+    <row r="12" spans="1:4" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" hidden="1" thickBot="1"/>
-    <row r="14" spans="1:4" ht="15.75" hidden="1" thickBot="1"/>
-    <row r="15" spans="1:4" ht="24.75" customHeight="1">
-      <c r="A15" s="71" t="s">
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-    </row>
-    <row r="16" spans="1:4" ht="24.75" customHeight="1">
-      <c r="A16" s="64" t="str">
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="78"/>
+    </row>
+    <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="85" t="str">
         <f>CONCATENATE("Name：",Common!E1)</f>
         <v>Name：</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-    </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1">
-      <c r="A17" s="50" t="str">
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+    </row>
+    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="91" t="str">
         <f>CONCATENATE("CFDA Licence No.:   ",Common!E11)</f>
         <v>CFDA Licence No.:   GYBZ 20130307</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-    </row>
-    <row r="18" spans="1:4" ht="24.75" customHeight="1">
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
+    </row>
+    <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="86">
         <f>Common!E2</f>
         <v>0</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-    </row>
-    <row r="19" spans="1:4" ht="24.75" customHeight="1">
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+    </row>
+    <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="86">
         <f>Common!E3</f>
         <v>0</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-    </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1">
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="86">
         <f>Common!E4</f>
         <v>0</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-    </row>
-    <row r="21" spans="1:4" ht="28.5" customHeight="1">
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+    </row>
+    <row r="21" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>48</v>
       </c>
@@ -2063,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="39" customHeight="1">
+    <row r="22" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>49</v>
       </c>
@@ -2079,31 +2802,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A23" s="64" t="str">
-        <f>CONCATENATE("Gross Weight：",Common!E9)</f>
-        <v>Gross Weight：</v>
-      </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="63"/>
-    </row>
-    <row r="24" spans="1:4" ht="25.5" customHeight="1">
-      <c r="A24" s="65" t="str">
-        <f>CONCATENATE("Carton Size:",Common!E10)</f>
-        <v>Carton Size:</v>
-      </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="67"/>
-    </row>
-    <row r="25" spans="1:4" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A25" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
+    <row r="23" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="85" t="str">
+        <f>CONCATENATE("Gross Weight：",Common!E9,"KG")</f>
+        <v>Gross Weight：KG</v>
+      </c>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+    </row>
+    <row r="24" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="94">
+        <f>Common!E10</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="92"/>
+      <c r="D24" s="93"/>
+    </row>
+    <row r="25" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -2112,6 +2837,12 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:D2"/>
@@ -2120,34 +2851,654 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.19685039370078741" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="32" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="3.25" style="32" customWidth="1"/>
+    <col min="5" max="5" width="2.375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="32" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="98"/>
+    </row>
+    <row r="2" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="47"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="4" spans="1:6" s="33" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:6" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="43" t="str">
+        <f>CONCATENATE("Order:",Common!E12)</f>
+        <v>Order:</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="38"/>
+    </row>
+    <row r="6" spans="1:6" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="38"/>
+    </row>
+    <row r="7" spans="1:6" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="38"/>
+    </row>
+    <row r="8" spans="1:6" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="37" t="str">
+        <f>CONCATENATE("Descript:SHEET,LDPE,",Common!E10,",S")</f>
+        <v>Descript:SHEET,LDPE,,S</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="38"/>
+    </row>
+    <row r="9" spans="1:6" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="40">
+        <f>Common!E7</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="38"/>
+    </row>
+    <row r="10" spans="1:6" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="102">
+        <f>Common!E4</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="102"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="34" t="str">
+        <f>CONCATENATE("Mfg Date：",Common!E6)</f>
+        <v>Mfg Date：</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="95">
+        <f>Common!E8</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="95"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="34" t="str">
+        <f>CONCATENATE("Expiry Date：",Common!E7)</f>
+        <v>Expiry Date：</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.19685039370078741" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="str">
+        <f>CONCATENATE("产品名称：",Common!B1)</f>
+        <v>产品名称：</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="65" t="str">
+        <f>Common!B11</f>
+        <v>国药包字 20130307</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="68">
+        <f>Common!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="68">
+        <f>Common!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="68">
+        <f>Common!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="22">
+        <f>Common!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="28">
+        <f>Common!B7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="23">
+        <f>Common!B6</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="24">
+        <f>Common!B8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="50" t="str">
+        <f>CONCATENATE(Common!B9," KG")</f>
+        <v xml:space="preserve"> KG</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="50">
+        <f>Common!B10</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B8:D8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.19685039370078741" top="0.11811023622047245" bottom="0.11811023622047245" header="0" footer="0"/>
+  <pageSetup paperSize="282" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="82">
+        <v>2015051101</v>
+      </c>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2015.05</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2018.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5">
+        <v>500</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
+    </row>
+    <row r="9" spans="1:4" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
+    </row>
+    <row r="10" spans="1:4" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+    </row>
+    <row r="11" spans="1:4" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+    </row>
+    <row r="12" spans="1:4" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="78"/>
+    </row>
+    <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="85" t="str">
+        <f>CONCATENATE("Name：",Common!E1)</f>
+        <v>Name：</v>
+      </c>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+    </row>
+    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="91" t="str">
+        <f>CONCATENATE("CFDA Licence No.:   ",Common!E11)</f>
+        <v>CFDA Licence No.:   GYBZ 20130307</v>
+      </c>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
+    </row>
+    <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="86">
+        <f>Common!E2</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+    </row>
+    <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="86">
+        <f>Common!E3</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="86">
+        <f>Common!E4</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+    </row>
+    <row r="21" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="16">
+        <f>Common!E5</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="29">
+        <f>Common!E7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="16">
+        <f>Common!E6</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="27">
+        <f>Common!E8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="106">
+        <f>Common!E10</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="107"/>
+      <c r="D23" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B8:D8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.19685039370078741" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
@@ -2157,7 +3508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -2167,7 +3518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
@@ -2177,7 +3528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>40</v>
       </c>
@@ -2187,7 +3538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>28</v>
       </c>
@@ -2198,7 +3549,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>30</v>
       </c>
@@ -2209,7 +3560,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -2219,7 +3570,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>34</v>
       </c>
@@ -2229,7 +3580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>36</v>
       </c>
@@ -2239,7 +3590,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>38</v>
       </c>
@@ -2249,18 +3600,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" t="s">
-        <v>68</v>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D12" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
